--- a/code/data_scrap/downloads/primary_products/serie_rubros_usos_mensual.xlsx
+++ b/code/data_scrap/downloads/primary_products/serie_rubros_usos_mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9905" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9949" uniqueCount="49">
   <si>
     <t>año</t>
   </si>
@@ -518,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2476"/>
+  <dimension ref="A1:E2487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7321,7 +7321,7 @@
         <v>40</v>
       </c>
       <c r="E400">
-        <v>1613088930.7</v>
+        <v>1613088930.8</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -11622,7 +11622,7 @@
         <v>40</v>
       </c>
       <c r="E653">
-        <v>1160420564.1</v>
+        <v>1160420564</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -17640,7 +17640,7 @@
         <v>42</v>
       </c>
       <c r="E1007">
-        <v>1452923505.3</v>
+        <v>1452923505.2</v>
       </c>
     </row>
     <row r="1008" spans="1:5">
@@ -19289,7 +19289,7 @@
         <v>40</v>
       </c>
       <c r="E1104">
-        <v>1793133130.1</v>
+        <v>1793133130</v>
       </c>
     </row>
     <row r="1105" spans="1:5">
@@ -22842,7 +22842,7 @@
         <v>40</v>
       </c>
       <c r="E1313">
-        <v>1377966421</v>
+        <v>1377966420.9</v>
       </c>
     </row>
     <row r="1314" spans="1:5">
@@ -24933,7 +24933,7 @@
         <v>42</v>
       </c>
       <c r="E1436">
-        <v>1041670925.4</v>
+        <v>1041670925.3</v>
       </c>
     </row>
     <row r="1437" spans="1:5">
@@ -41389,7 +41389,7 @@
         <v>42</v>
       </c>
       <c r="E2404">
-        <v>1394526460.3</v>
+        <v>1394526460.2</v>
       </c>
     </row>
     <row r="2405" spans="1:5">
@@ -42494,7 +42494,7 @@
         <v>41</v>
       </c>
       <c r="E2469">
-        <v>536359914.01</v>
+        <v>517391703.01</v>
       </c>
     </row>
     <row r="2470" spans="1:5">
@@ -42545,7 +42545,7 @@
         <v>44</v>
       </c>
       <c r="E2472">
-        <v>562647702.71</v>
+        <v>581176705.34</v>
       </c>
     </row>
     <row r="2473" spans="1:5">
@@ -42562,7 +42562,7 @@
         <v>45</v>
       </c>
       <c r="E2473">
-        <v>1807046811.7</v>
+        <v>1808260381.6</v>
       </c>
     </row>
     <row r="2474" spans="1:5">
@@ -42579,7 +42579,7 @@
         <v>46</v>
       </c>
       <c r="E2474">
-        <v>1951158810.5</v>
+        <v>1934000876.3</v>
       </c>
     </row>
     <row r="2475" spans="1:5">
@@ -42596,7 +42596,7 @@
         <v>47</v>
       </c>
       <c r="E2475">
-        <v>1430146653</v>
+        <v>1427256961.1</v>
       </c>
     </row>
     <row r="2476" spans="1:5">
@@ -42614,6 +42614,193 @@
       </c>
       <c r="E2476">
         <v>45399348.53</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:5">
+      <c r="A2477" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2477" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2477" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2477" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2477">
+        <v>962109474.58</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:5">
+      <c r="A2478" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2478" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2478" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2478" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2478">
+        <v>677614018.9</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:5">
+      <c r="A2479" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2479" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2479" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2479" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2479">
+        <v>2074916210.9</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:5">
+      <c r="A2480" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2480" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2480" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2480" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2480">
+        <v>503628013.1</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:5">
+      <c r="A2481" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2481" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2481" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2481" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2481">
+        <v>1361425936.7</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:5">
+      <c r="A2482" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2482" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2482" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2482" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2482">
+        <v>215614424.47</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:5">
+      <c r="A2483" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2483" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2483" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2483" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2483">
+        <v>764911634.59</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:5">
+      <c r="A2484" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2484" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2484" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2484" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2484">
+        <v>1692030680.1</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:5">
+      <c r="A2485" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2485" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2485" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2485" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2485">
+        <v>1788120146.5</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:5">
+      <c r="A2486" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2486" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2486" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2486" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2486">
+        <v>1139937559.5</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:5">
+      <c r="A2487" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2487" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2487">
+        <v>43568679.72</v>
       </c>
     </row>
   </sheetData>

--- a/code/data_scrap/downloads/primary_products/serie_rubros_usos_mensual.xlsx
+++ b/code/data_scrap/downloads/primary_products/serie_rubros_usos_mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9949" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9993" uniqueCount="49">
   <si>
     <t>año</t>
   </si>
@@ -518,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2487"/>
+  <dimension ref="A1:E2498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11622,7 +11622,7 @@
         <v>40</v>
       </c>
       <c r="E653">
-        <v>1160420564</v>
+        <v>1160420564.1</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -15192,7 +15192,7 @@
         <v>41</v>
       </c>
       <c r="E863">
-        <v>1519991403.4</v>
+        <v>1519991403.3</v>
       </c>
     </row>
     <row r="864" spans="1:5">
@@ -15770,7 +15770,7 @@
         <v>42</v>
       </c>
       <c r="E897">
-        <v>1375863107.8</v>
+        <v>1375863107.7</v>
       </c>
     </row>
     <row r="898" spans="1:5">
@@ -17640,7 +17640,7 @@
         <v>42</v>
       </c>
       <c r="E1007">
-        <v>1452923505.2</v>
+        <v>1452923505.3</v>
       </c>
     </row>
     <row r="1008" spans="1:5">
@@ -19323,7 +19323,7 @@
         <v>42</v>
       </c>
       <c r="E1106">
-        <v>1453269011.2</v>
+        <v>1453269011.3</v>
       </c>
     </row>
     <row r="1107" spans="1:5">
@@ -22842,7 +22842,7 @@
         <v>40</v>
       </c>
       <c r="E1313">
-        <v>1377966420.9</v>
+        <v>1377966421</v>
       </c>
     </row>
     <row r="1314" spans="1:5">
@@ -23029,7 +23029,7 @@
         <v>40</v>
       </c>
       <c r="E1324">
-        <v>1556621250.4</v>
+        <v>1556621250.3</v>
       </c>
     </row>
     <row r="1325" spans="1:5">
@@ -41389,7 +41389,7 @@
         <v>42</v>
       </c>
       <c r="E2404">
-        <v>1394526460.2</v>
+        <v>1394526460.3</v>
       </c>
     </row>
     <row r="2405" spans="1:5">
@@ -41644,7 +41644,7 @@
         <v>46</v>
       </c>
       <c r="E2419">
-        <v>1939190659.5</v>
+        <v>1939190659.6</v>
       </c>
     </row>
     <row r="2420" spans="1:5">
@@ -42477,7 +42477,7 @@
         <v>40</v>
       </c>
       <c r="E2468">
-        <v>2275930997.7</v>
+        <v>2275930997.8</v>
       </c>
     </row>
     <row r="2469" spans="1:5">
@@ -42732,7 +42732,7 @@
         <v>44</v>
       </c>
       <c r="E2483">
-        <v>764911634.59</v>
+        <v>793895579.1799999</v>
       </c>
     </row>
     <row r="2484" spans="1:5">
@@ -42749,7 +42749,7 @@
         <v>45</v>
       </c>
       <c r="E2484">
-        <v>1692030680.1</v>
+        <v>1689378010.3</v>
       </c>
     </row>
     <row r="2485" spans="1:5">
@@ -42766,7 +42766,7 @@
         <v>46</v>
       </c>
       <c r="E2485">
-        <v>1788120146.5</v>
+        <v>1774545500.1</v>
       </c>
     </row>
     <row r="2486" spans="1:5">
@@ -42783,7 +42783,7 @@
         <v>47</v>
       </c>
       <c r="E2486">
-        <v>1139937559.5</v>
+        <v>1138649347.1</v>
       </c>
     </row>
     <row r="2487" spans="1:5">
@@ -42801,6 +42801,193 @@
       </c>
       <c r="E2487">
         <v>43568679.72</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:5">
+      <c r="A2488" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2488" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2488" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2488" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2488">
+        <v>851702077.04</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:5">
+      <c r="A2489" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2489" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2489" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2489" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2489">
+        <v>665807840.74</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:5">
+      <c r="A2490" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2490" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2490" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2490" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2490">
+        <v>2153518231.3</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:5">
+      <c r="A2491" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2491" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2491" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2491" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2491">
+        <v>398907928.65</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:5">
+      <c r="A2492" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2492" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2492" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2492" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2492">
+        <v>1312974711.6</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:5">
+      <c r="A2493" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2493" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2493" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2493" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2493">
+        <v>61459618.91</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:5">
+      <c r="A2494" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2494" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2494" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2494" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2494">
+        <v>679551105.9400001</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:5">
+      <c r="A2495" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2495" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2495" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2495" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2495">
+        <v>1756786027.4</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:5">
+      <c r="A2496" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2496" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2496" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2496">
+        <v>1746328750.9</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:5">
+      <c r="A2497" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2497" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2497" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2497">
+        <v>689334121.77</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:5">
+      <c r="A2498" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2498" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2498" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2498">
+        <v>42822869.89</v>
       </c>
     </row>
   </sheetData>
